--- a/biology/Microbiologie/Mycobacterium_tuberculosis_var._caprae/Mycobacterium_tuberculosis_var._caprae.xlsx
+++ b/biology/Microbiologie/Mycobacterium_tuberculosis_var._caprae/Mycobacterium_tuberculosis_var._caprae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mycobacterium tuberculosis var. caprae est une variété de bactéries de la famille des Mycobacteriaceae. Comme les autres variétés de Mycobacterium tuberculosis, c'est un agent infectieux responsable de la tuberculose humaine.
 </t>
@@ -511,12 +523,14 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce taxon est décrit en 1999 par A. Aranaz et al. avec le rang de sous-espèce sous le nom de « Mycobacterium tuberculosis subsp. caprae »[1]. Il va ensuite changer plusieurs fois de dénomination.
-En 2002 S. Niemann et al. font valoir des arguments biochimiques et génétiques en faveur d'un reclassement en tant que sous-espèce de Mycobacterium bovis[2].
-L'année suivante plusieurs auteurs de l'équipe de A. Aranaz et al. proposent d'élever le taxon au rang d'espèce sous le nom de « Mycobacterium caprae »[3]. 
-Finalement, en 2018, M.A. Riojas et al. démontrent par une étude génomique comparative qu'il s'agit en fait d'un sous-taxon de l'espèce Mycobacterium tuberculosis[4]. Cette dernière étude n'ayant pas apporté d'argument en faveur d'une élévation au rang de sous-espèce, il est préconisé par l'ICSP de le désigner comme une variété (abréviation var.) de l'espèce dans laquelle il est inclus (Appendice 10 du code de nomenclature bactérienne, révision 1990).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taxon est décrit en 1999 par A. Aranaz et al. avec le rang de sous-espèce sous le nom de « Mycobacterium tuberculosis subsp. caprae ». Il va ensuite changer plusieurs fois de dénomination.
+En 2002 S. Niemann et al. font valoir des arguments biochimiques et génétiques en faveur d'un reclassement en tant que sous-espèce de Mycobacterium bovis.
+L'année suivante plusieurs auteurs de l'équipe de A. Aranaz et al. proposent d'élever le taxon au rang d'espèce sous le nom de « Mycobacterium caprae ». 
+Finalement, en 2018, M.A. Riojas et al. démontrent par une étude génomique comparative qu'il s'agit en fait d'un sous-taxon de l'espèce Mycobacterium tuberculosis. Cette dernière étude n'ayant pas apporté d'argument en faveur d'une élévation au rang de sous-espèce, il est préconisé par l'ICSP de le désigner comme une variété (abréviation var.) de l'espèce dans laquelle il est inclus (Appendice 10 du code de nomenclature bactérienne, révision 1990).
 </t>
         </is>
       </c>
